--- a/inst/testdata/latlon/testpoints_100.xlsx
+++ b/inst/testdata/latlon/testpoints_100.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="varname" sheetId="1" r:id="rId1"/>
+    <sheet name="testpoints" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -381,1601 +381,1601 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>45.55001</v>
+        <v>40.70103</v>
       </c>
       <c r="B2">
-        <v>-122.64108</v>
+        <v>-75.12058</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Example name for site 1</t>
+          <t>Example Site 1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>38.96499</v>
+        <v>40.904267</v>
       </c>
       <c r="B3">
-        <v>-77.08787</v>
+        <v>-72.611773</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Example name for site 2</t>
+          <t>Example Site 2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>44.3278</v>
+        <v>41.51767</v>
       </c>
       <c r="B4">
-        <v>-87.91958</v>
+        <v>-87.47127</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Example name for site 3</t>
+          <t>Example Site 3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>35.19709</v>
+        <v>47.586111</v>
       </c>
       <c r="B5">
-        <v>-111.6516</v>
+        <v>-115.312778</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Example name for site 4</t>
+          <t>Example Site 4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>41.42673</v>
+        <v>26.89596</v>
       </c>
       <c r="B6">
-        <v>-81.7732</v>
+        <v>-80.06107</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Example name for site 5</t>
+          <t>Example Site 5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>41.76399</v>
+        <v>33.291553</v>
       </c>
       <c r="B7">
-        <v>-83.75082399999999</v>
+        <v>-89.171211</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Example name for site 6</t>
+          <t>Example Site 6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>35.940419</v>
+        <v>39.78944</v>
       </c>
       <c r="B8">
-        <v>-79.174736</v>
+        <v>-93.5111</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Example name for site 7</t>
+          <t>Example Site 7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>37.321586</v>
+        <v>36.2059</v>
       </c>
       <c r="B9">
-        <v>-98.94727399999999</v>
+        <v>-86.8227</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Example name for site 8</t>
+          <t>Example Site 8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>40.82468</v>
+        <v>40.78919</v>
       </c>
       <c r="B10">
-        <v>-96.71825</v>
+        <v>-73.46160999999999</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Example name for site 9</t>
+          <t>Example Site 9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>40.332624</v>
+        <v>39.959521</v>
       </c>
       <c r="B11">
-        <v>-74.26403000000001</v>
+        <v>-75.70273400000001</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Example name for site 10</t>
+          <t>Example Site 10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>33.57915</v>
+        <v>31.316944</v>
       </c>
       <c r="B12">
-        <v>-83.82601</v>
+        <v>-92.380556</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Example name for site 11</t>
+          <t>Example Site 11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>38.566692</v>
+        <v>36.733539</v>
       </c>
       <c r="B13">
-        <v>-121.316828</v>
+        <v>-119.751161</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Example name for site 12</t>
+          <t>Example Site 12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>41.752561</v>
+        <v>41.02756</v>
       </c>
       <c r="B14">
-        <v>-70.96836</v>
+        <v>-74.04770000000001</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Example name for site 13</t>
+          <t>Example Site 13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>37.318001</v>
+        <v>42.09471</v>
       </c>
       <c r="B15">
-        <v>-120.488467</v>
+        <v>-80.15934</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Example name for site 14</t>
+          <t>Example Site 14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>42.02961</v>
+        <v>38.053168</v>
       </c>
       <c r="B16">
-        <v>-91.66803</v>
+        <v>-84.72073</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Example name for site 15</t>
+          <t>Example Site 15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>31.143165</v>
+        <v>36.20946</v>
       </c>
       <c r="B17">
-        <v>-93.271889</v>
+        <v>-86.74722</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Example name for site 16</t>
+          <t>Example Site 16</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>40.83942</v>
+        <v>33.51216</v>
       </c>
       <c r="B18">
-        <v>-74.16639000000001</v>
+        <v>-112.1084</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Example name for site 17</t>
+          <t>Example Site 17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>41.488528</v>
+        <v>42.09972</v>
       </c>
       <c r="B19">
-        <v>-75.533361</v>
+        <v>-70.98591</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Example name for site 18</t>
+          <t>Example Site 18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>40.433205</v>
+        <v>33.92738</v>
       </c>
       <c r="B20">
-        <v>-74.547476</v>
+        <v>-87.62032000000001</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Example name for site 19</t>
+          <t>Example Site 19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>33.451389</v>
+        <v>42.481389</v>
       </c>
       <c r="B21">
-        <v>-84.351389</v>
+        <v>-71.716944</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Example name for site 20</t>
+          <t>Example Site 20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>35.65388</v>
+        <v>41.30417</v>
       </c>
       <c r="B22">
-        <v>-91.25091</v>
+        <v>-72.92876</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Example name for site 21</t>
+          <t>Example Site 21</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>40.431935</v>
+        <v>34.20873</v>
       </c>
       <c r="B23">
-        <v>-111.785801</v>
+        <v>-118.4672</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Example name for site 22</t>
+          <t>Example Site 22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>41.358374</v>
+        <v>41.47631</v>
       </c>
       <c r="B24">
-        <v>-86.328861</v>
+        <v>-72.80577</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Example name for site 23</t>
+          <t>Example Site 23</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>36.38869</v>
+        <v>37.90481</v>
       </c>
       <c r="B25">
-        <v>-79.96146</v>
+        <v>-121.27304</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Example name for site 24</t>
+          <t>Example Site 24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>28.47205</v>
+        <v>35.82812</v>
       </c>
       <c r="B26">
-        <v>-81.45047</v>
+        <v>-83.968031</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Example name for site 25</t>
+          <t>Example Site 25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>40.13864</v>
+        <v>40.02536</v>
       </c>
       <c r="B27">
-        <v>-74.841256</v>
+        <v>-74.08999</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Example name for site 26</t>
+          <t>Example Site 26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>28.860211</v>
+        <v>37.837133</v>
       </c>
       <c r="B28">
-        <v>-97.787903</v>
+        <v>-122.262422</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Example name for site 27</t>
+          <t>Example Site 27</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>31.51851</v>
+        <v>38.907709</v>
       </c>
       <c r="B29">
-        <v>-97.13724999999999</v>
+        <v>-77.055278</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Example name for site 28</t>
+          <t>Example Site 28</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>48.338056</v>
+        <v>40.397643</v>
       </c>
       <c r="B30">
-        <v>-122.666667</v>
+        <v>-93.588503</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Example name for site 29</t>
+          <t>Example Site 29</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>38.98011</v>
+        <v>25.87879</v>
       </c>
       <c r="B31">
-        <v>-79.14555799999999</v>
+        <v>-80.1678</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Example name for site 30</t>
+          <t>Example Site 30</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>40.882675</v>
+        <v>34.16538</v>
       </c>
       <c r="B32">
-        <v>-72.928381</v>
+        <v>-118.29051</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Example name for site 31</t>
+          <t>Example Site 31</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>37.6853</v>
+        <v>33.630064</v>
       </c>
       <c r="B33">
-        <v>-121.76785</v>
+        <v>-117.695749</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Example name for site 32</t>
+          <t>Example Site 32</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>28.621579</v>
+        <v>40.044444</v>
       </c>
       <c r="B34">
-        <v>-81.445376</v>
+        <v>-104.822222</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Example name for site 33</t>
+          <t>Example Site 33</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>32.792209</v>
+        <v>37.96838</v>
       </c>
       <c r="B35">
-        <v>-80.03088099999999</v>
+        <v>-88.323826</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Example name for site 34</t>
+          <t>Example Site 34</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>41.68311</v>
+        <v>37.0959</v>
       </c>
       <c r="B36">
-        <v>-85.93908999999999</v>
+        <v>-113.5224</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Example name for site 35</t>
+          <t>Example Site 35</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>40.33723</v>
+        <v>31.87078</v>
       </c>
       <c r="B37">
-        <v>-74.797307</v>
+        <v>-102.43743</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Example name for site 36</t>
+          <t>Example Site 36</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>40.71537</v>
+        <v>39.682581</v>
       </c>
       <c r="B38">
-        <v>-73.9415</v>
+        <v>-91.36926099999999</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Example name for site 37</t>
+          <t>Example Site 37</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>37.71646</v>
+        <v>40.103892</v>
       </c>
       <c r="B39">
-        <v>-122.17919</v>
+        <v>-104.572678</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Example name for site 38</t>
+          <t>Example Site 38</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>41.35765</v>
+        <v>33.51385</v>
       </c>
       <c r="B40">
-        <v>-112.06438</v>
+        <v>-84.12609999999999</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Example name for site 39</t>
+          <t>Example Site 39</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>41.99625</v>
+        <v>47.48776</v>
       </c>
       <c r="B41">
-        <v>-88.72020999999999</v>
+        <v>-121.77167</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Example name for site 40</t>
+          <t>Example Site 40</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>36.16164</v>
+        <v>47.318996</v>
       </c>
       <c r="B42">
-        <v>-95.99945</v>
+        <v>-119.549012</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Example name for site 41</t>
+          <t>Example Site 41</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>44.256451</v>
+        <v>41.67361</v>
       </c>
       <c r="B43">
-        <v>-73.79303899999999</v>
+        <v>-83.7454</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Example name for site 42</t>
+          <t>Example Site 42</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>33.164323</v>
+        <v>42.92816</v>
       </c>
       <c r="B44">
-        <v>-87.523428</v>
+        <v>-90.621196</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Example name for site 43</t>
+          <t>Example Site 43</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>40.001581</v>
+        <v>41.423291</v>
       </c>
       <c r="B45">
-        <v>-109.30531</v>
+        <v>-73.08814700000001</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Example name for site 44</t>
+          <t>Example Site 44</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>34.187436</v>
+        <v>40.8596</v>
       </c>
       <c r="B46">
-        <v>-118.396491</v>
+        <v>-73.63444</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Example name for site 45</t>
+          <t>Example Site 45</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>40.74685</v>
+        <v>39.62238</v>
       </c>
       <c r="B47">
-        <v>-73.99243</v>
+        <v>-77.72009</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Example name for site 46</t>
+          <t>Example Site 46</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>38.74044</v>
+        <v>38.742665</v>
       </c>
       <c r="B48">
-        <v>-89.6812</v>
+        <v>-90.81661800000001</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Example name for site 47</t>
+          <t>Example Site 47</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>41.70433</v>
+        <v>41.88063</v>
       </c>
       <c r="B49">
-        <v>-71.47763999999999</v>
+        <v>-74.80911</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Example name for site 48</t>
+          <t>Example Site 48</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>41.80119</v>
+        <v>30.29172</v>
       </c>
       <c r="B50">
-        <v>-71.43924</v>
+        <v>-81.78136000000001</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Example name for site 49</t>
+          <t>Example Site 49</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>42.32457</v>
+        <v>45.67874</v>
       </c>
       <c r="B51">
-        <v>-87.83978</v>
+        <v>-122.61959</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Example name for site 50</t>
+          <t>Example Site 50</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>46.65787</v>
+        <v>40.33448</v>
       </c>
       <c r="B52">
-        <v>-99.36121</v>
+        <v>-73.99303</v>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Example name for site 51</t>
+          <t>Example Site 51</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>35.893278</v>
+        <v>41.77333</v>
       </c>
       <c r="B53">
-        <v>-100.827861</v>
+        <v>-87.58620000000001</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Example name for site 52</t>
+          <t>Example Site 52</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>32.57555</v>
+        <v>37.759926</v>
       </c>
       <c r="B54">
-        <v>-116.98582</v>
+        <v>-122.42409</v>
       </c>
       <c r="C54">
         <v>53</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Example name for site 53</t>
+          <t>Example Site 53</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>38.598056</v>
+        <v>44.93403</v>
       </c>
       <c r="B55">
-        <v>-121.551944</v>
+        <v>-92.33417</v>
       </c>
       <c r="C55">
         <v>54</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Example name for site 54</t>
+          <t>Example Site 54</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>34.190042</v>
+        <v>37.965621</v>
       </c>
       <c r="B56">
-        <v>-79.767674</v>
+        <v>-87.60729600000001</v>
       </c>
       <c r="C56">
         <v>55</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Example name for site 55</t>
+          <t>Example Site 55</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>35.33949</v>
+        <v>40.545528</v>
       </c>
       <c r="B57">
-        <v>-119.005399</v>
+        <v>-75.97966700000001</v>
       </c>
       <c r="C57">
         <v>56</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Example name for site 56</t>
+          <t>Example Site 56</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>40.77797</v>
+        <v>40.88804</v>
       </c>
       <c r="B58">
-        <v>-74.01560000000001</v>
+        <v>-75.31301999999999</v>
       </c>
       <c r="C58">
         <v>57</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Example name for site 57</t>
+          <t>Example Site 57</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>32.893299</v>
+        <v>45.372582</v>
       </c>
       <c r="B59">
-        <v>-117.150141</v>
+        <v>-111.730712</v>
       </c>
       <c r="C59">
         <v>58</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Example name for site 58</t>
+          <t>Example Site 58</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>35.307953</v>
+        <v>41.423309</v>
       </c>
       <c r="B60">
-        <v>-80.844454</v>
+        <v>-99.12549799999999</v>
       </c>
       <c r="C60">
         <v>59</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Example name for site 59</t>
+          <t>Example Site 59</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>39.6563</v>
+        <v>38.856438</v>
       </c>
       <c r="B61">
-        <v>-74.22548</v>
+        <v>-120.022819</v>
       </c>
       <c r="C61">
         <v>60</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Example name for site 60</t>
+          <t>Example Site 60</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>39.98513</v>
+        <v>32.25106</v>
       </c>
       <c r="B62">
-        <v>-75.81122999999999</v>
+        <v>-106.69282</v>
       </c>
       <c r="C62">
         <v>61</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Example name for site 61</t>
+          <t>Example Site 61</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>39.95549</v>
+        <v>46.74382</v>
       </c>
       <c r="B63">
-        <v>-74.12394999999999</v>
+        <v>-107.82095</v>
       </c>
       <c r="C63">
         <v>62</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Example name for site 62</t>
+          <t>Example Site 62</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>34.193326</v>
+        <v>39.55413</v>
       </c>
       <c r="B64">
-        <v>-79.836825</v>
+        <v>-89.27897</v>
       </c>
       <c r="C64">
         <v>63</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Example name for site 63</t>
+          <t>Example Site 63</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>43.08748</v>
+        <v>47.183009</v>
       </c>
       <c r="B65">
-        <v>-76.16426</v>
+        <v>-98.078452</v>
       </c>
       <c r="C65">
         <v>64</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Example name for site 64</t>
+          <t>Example Site 64</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>32.911762</v>
+        <v>40.804178</v>
       </c>
       <c r="B66">
-        <v>-97.351562</v>
+        <v>-124.119605</v>
       </c>
       <c r="C66">
         <v>65</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Example name for site 65</t>
+          <t>Example Site 65</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>47.99898</v>
+        <v>40.3378</v>
       </c>
       <c r="B67">
-        <v>-122.17714</v>
+        <v>-74.79604999999999</v>
       </c>
       <c r="C67">
         <v>66</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Example name for site 66</t>
+          <t>Example Site 66</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>39.85242</v>
+        <v>33.927719</v>
       </c>
       <c r="B68">
-        <v>-74.20008</v>
+        <v>-84.25408400000001</v>
       </c>
       <c r="C68">
         <v>67</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Example name for site 67</t>
+          <t>Example Site 67</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>30.25788</v>
+        <v>38.964363</v>
       </c>
       <c r="B69">
-        <v>-95.43098999999999</v>
+        <v>-84.390737</v>
       </c>
       <c r="C69">
         <v>68</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Example name for site 68</t>
+          <t>Example Site 68</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>44.256179</v>
+        <v>47.2553</v>
       </c>
       <c r="B70">
-        <v>-85.43020300000001</v>
+        <v>-121.202</v>
       </c>
       <c r="C70">
         <v>69</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Example name for site 69</t>
+          <t>Example Site 69</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>42.01677</v>
+        <v>41.002532</v>
       </c>
       <c r="B71">
-        <v>-71.02189</v>
+        <v>-96.162071</v>
       </c>
       <c r="C71">
         <v>70</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Example name for site 70</t>
+          <t>Example Site 70</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>37.38166</v>
+        <v>40.39</v>
       </c>
       <c r="B72">
-        <v>-89.66659</v>
+        <v>-74.45</v>
       </c>
       <c r="C72">
         <v>71</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Example name for site 71</t>
+          <t>Example Site 71</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>40.23572</v>
+        <v>40.89843</v>
       </c>
       <c r="B73">
-        <v>-75.5536</v>
+        <v>-72.313288</v>
       </c>
       <c r="C73">
         <v>72</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Example name for site 72</t>
+          <t>Example Site 72</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>44.04273</v>
+        <v>38.189837</v>
       </c>
       <c r="B74">
-        <v>-88.54264999999999</v>
+        <v>-92.64702800000001</v>
       </c>
       <c r="C74">
         <v>73</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Example name for site 73</t>
+          <t>Example Site 73</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>42.70055</v>
+        <v>41.94902</v>
       </c>
       <c r="B75">
-        <v>-91.41755000000001</v>
+        <v>-87.86867599999999</v>
       </c>
       <c r="C75">
         <v>74</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Example name for site 74</t>
+          <t>Example Site 74</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>34.541667</v>
+        <v>42.97697</v>
       </c>
       <c r="B76">
-        <v>-92.981944</v>
+        <v>-71.46306</v>
       </c>
       <c r="C76">
         <v>75</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Example name for site 75</t>
+          <t>Example Site 75</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>40.061944</v>
+        <v>43.119927</v>
       </c>
       <c r="B77">
-        <v>-94.765278</v>
+        <v>-75.293373</v>
       </c>
       <c r="C77">
         <v>76</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Example name for site 76</t>
+          <t>Example Site 76</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>39.2236</v>
+        <v>47.56729</v>
       </c>
       <c r="B78">
-        <v>-76.66893</v>
+        <v>-122.33394</v>
       </c>
       <c r="C78">
         <v>77</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Example name for site 77</t>
+          <t>Example Site 77</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>34.201792</v>
+        <v>40.111532</v>
       </c>
       <c r="B79">
-        <v>-118.431252</v>
+        <v>-88.04284699999999</v>
       </c>
       <c r="C79">
         <v>78</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Example name for site 78</t>
+          <t>Example Site 78</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>45.5735</v>
+        <v>44.32828</v>
       </c>
       <c r="B80">
-        <v>-94.23972999999999</v>
+        <v>-93.8792</v>
       </c>
       <c r="C80">
         <v>79</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Example name for site 79</t>
+          <t>Example Site 79</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>42.40399</v>
+        <v>39.492218</v>
       </c>
       <c r="B81">
-        <v>-71.11469</v>
+        <v>-108.091011</v>
       </c>
       <c r="C81">
         <v>80</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Example name for site 80</t>
+          <t>Example Site 80</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>36.177462</v>
+        <v>41.07952</v>
       </c>
       <c r="B82">
-        <v>-86.785877</v>
+        <v>-86.60348</v>
       </c>
       <c r="C82">
         <v>81</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Example name for site 81</t>
+          <t>Example Site 81</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>41.43589</v>
+        <v>36.85544</v>
       </c>
       <c r="B83">
-        <v>-71.49871</v>
+        <v>-76.28285</v>
       </c>
       <c r="C83">
         <v>82</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Example name for site 82</t>
+          <t>Example Site 82</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>28.815775</v>
+        <v>41.21422</v>
       </c>
       <c r="B84">
-        <v>-81.874376</v>
+        <v>-96.07375999999999</v>
       </c>
       <c r="C84">
         <v>83</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Example name for site 83</t>
+          <t>Example Site 83</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>38.33959</v>
+        <v>33.452022</v>
       </c>
       <c r="B85">
-        <v>-122.76681</v>
+        <v>-83.213765</v>
       </c>
       <c r="C85">
         <v>84</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Example name for site 84</t>
+          <t>Example Site 84</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>37.592015</v>
+        <v>37.851193</v>
       </c>
       <c r="B86">
-        <v>-122.030186</v>
+        <v>-122.248406</v>
       </c>
       <c r="C86">
         <v>85</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Example name for site 85</t>
+          <t>Example Site 85</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>36.182662</v>
+        <v>35.14925</v>
       </c>
       <c r="B87">
-        <v>-89.667641</v>
+        <v>-106.62411</v>
       </c>
       <c r="C87">
         <v>86</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Example name for site 86</t>
+          <t>Example Site 86</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>47.544684</v>
+        <v>32.344975</v>
       </c>
       <c r="B88">
-        <v>-122.108067</v>
+        <v>-93.61304199999999</v>
       </c>
       <c r="C88">
         <v>87</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Example name for site 87</t>
+          <t>Example Site 87</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>37.127155</v>
+        <v>37.194376</v>
       </c>
       <c r="B89">
-        <v>-120.380097</v>
+        <v>-113.61702</v>
       </c>
       <c r="C89">
         <v>88</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Example name for site 88</t>
+          <t>Example Site 88</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>39.15462</v>
+        <v>44.22666</v>
       </c>
       <c r="B90">
-        <v>-74.69347999999999</v>
+        <v>-91.82977</v>
       </c>
       <c r="C90">
         <v>89</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Example name for site 89</t>
+          <t>Example Site 89</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>41.06737</v>
+        <v>40.629886</v>
       </c>
       <c r="B91">
-        <v>-86.21587</v>
+        <v>-74.309023</v>
       </c>
       <c r="C91">
         <v>90</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Example name for site 90</t>
+          <t>Example Site 90</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>40.93414</v>
+        <v>44.62645</v>
       </c>
       <c r="B92">
-        <v>-73.98806999999999</v>
+        <v>-91.96944999999999</v>
       </c>
       <c r="C92">
         <v>91</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Example name for site 91</t>
+          <t>Example Site 91</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>30.85854</v>
+        <v>35.228945</v>
       </c>
       <c r="B93">
-        <v>-96.575275</v>
+        <v>-114.222856</v>
       </c>
       <c r="C93">
         <v>92</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Example name for site 92</t>
+          <t>Example Site 92</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>48.12031</v>
+        <v>34.74096</v>
       </c>
       <c r="B94">
-        <v>-123.44057</v>
+        <v>-81.16623</v>
       </c>
       <c r="C94">
         <v>93</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Example name for site 93</t>
+          <t>Example Site 93</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>46.7107</v>
+        <v>36.67467</v>
       </c>
       <c r="B95">
-        <v>-122.97472</v>
+        <v>-93.36641899999999</v>
       </c>
       <c r="C95">
         <v>94</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Example name for site 94</t>
+          <t>Example Site 94</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>43.41055</v>
+        <v>42.986</v>
       </c>
       <c r="B96">
-        <v>-84.60874</v>
+        <v>-76.148082</v>
       </c>
       <c r="C96">
         <v>95</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Example name for site 95</t>
+          <t>Example Site 95</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>33.43547</v>
+        <v>32.4628</v>
       </c>
       <c r="B97">
-        <v>-112.300613</v>
+        <v>-96.9663</v>
       </c>
       <c r="C97">
         <v>96</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Example name for site 96</t>
+          <t>Example Site 96</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>42.813093</v>
+        <v>33.95</v>
       </c>
       <c r="B98">
-        <v>-84.53363</v>
+        <v>-87.095</v>
       </c>
       <c r="C98">
         <v>97</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Example name for site 97</t>
+          <t>Example Site 97</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>46.81357</v>
+        <v>40.20932</v>
       </c>
       <c r="B99">
-        <v>-92.07827</v>
+        <v>-74.37976999999999</v>
       </c>
       <c r="C99">
         <v>98</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Example name for site 98</t>
+          <t>Example Site 98</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>40.71766</v>
+        <v>42.42034</v>
       </c>
       <c r="B100">
-        <v>-73.99222</v>
+        <v>-93.67964000000001</v>
       </c>
       <c r="C100">
         <v>99</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Example name for site 99</t>
+          <t>Example Site 99</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>39.85434</v>
+        <v>39.348</v>
       </c>
       <c r="B101">
-        <v>-86.24003999999999</v>
+        <v>-84.8536</v>
       </c>
       <c r="C101">
         <v>100</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Example name for site 100</t>
+          <t>Example Site 100</t>
         </is>
       </c>
     </row>

--- a/inst/testdata/latlon/testpoints_100.xlsx
+++ b/inst/testdata/latlon/testpoints_100.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>siteid</t>
+          <t>sitenumber</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -381,10 +381,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>40.70103</v>
+        <v>36.015714</v>
       </c>
       <c r="B2">
-        <v>-75.12058</v>
+        <v>-90.799477</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -397,10 +397,10 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>40.904267</v>
+        <v>40.704774</v>
       </c>
       <c r="B3">
-        <v>-72.611773</v>
+        <v>-73.94186000000001</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -413,10 +413,10 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>41.51767</v>
+        <v>41.505144</v>
       </c>
       <c r="B4">
-        <v>-87.47127</v>
+        <v>-94.518159</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -429,10 +429,10 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>47.586111</v>
+        <v>46.916976</v>
       </c>
       <c r="B5">
-        <v>-115.312778</v>
+        <v>-97.996522</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -445,10 +445,10 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>26.89596</v>
+        <v>38.41666</v>
       </c>
       <c r="B6">
-        <v>-80.06107</v>
+        <v>-122.8662</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -461,10 +461,10 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>33.291553</v>
+        <v>31.127656</v>
       </c>
       <c r="B7">
-        <v>-89.171211</v>
+        <v>-97.86003599999999</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -477,10 +477,10 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>39.78944</v>
+        <v>33.722</v>
       </c>
       <c r="B8">
-        <v>-93.5111</v>
+        <v>-117.91413</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -493,10 +493,10 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>36.2059</v>
+        <v>34.04695</v>
       </c>
       <c r="B9">
-        <v>-86.8227</v>
+        <v>-118.03132</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -509,10 +509,10 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>40.78919</v>
+        <v>29.904808</v>
       </c>
       <c r="B10">
-        <v>-73.46160999999999</v>
+        <v>-90.136928</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>39.959521</v>
+        <v>40.10397</v>
       </c>
       <c r="B11">
-        <v>-75.70273400000001</v>
+        <v>-83.77349</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -541,10 +541,10 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>31.316944</v>
+        <v>32.9296</v>
       </c>
       <c r="B12">
-        <v>-92.380556</v>
+        <v>-96.323607</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>36.733539</v>
+        <v>40.28939</v>
       </c>
       <c r="B13">
-        <v>-119.751161</v>
+        <v>-73.98488999999999</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>41.02756</v>
+        <v>39.08575</v>
       </c>
       <c r="B14">
-        <v>-74.04770000000001</v>
+        <v>-89.39008</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -589,10 +589,10 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>42.09471</v>
+        <v>30.314791</v>
       </c>
       <c r="B15">
-        <v>-80.15934</v>
+        <v>-95.38846700000001</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>38.053168</v>
+        <v>35.101556</v>
       </c>
       <c r="B16">
-        <v>-84.72073</v>
+        <v>-117.991517</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -621,10 +621,10 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>36.20946</v>
+        <v>42.18712</v>
       </c>
       <c r="B17">
-        <v>-86.74722</v>
+        <v>-83.76461999999999</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -637,10 +637,10 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>33.51216</v>
+        <v>40.767653</v>
       </c>
       <c r="B18">
-        <v>-112.1084</v>
+        <v>-99.702</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>42.09972</v>
+        <v>30.680797</v>
       </c>
       <c r="B19">
-        <v>-70.98591</v>
+        <v>-96.318895</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -669,10 +669,10 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>33.92738</v>
+        <v>41.71859</v>
       </c>
       <c r="B20">
-        <v>-87.62032000000001</v>
+        <v>-87.81511999999999</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>42.481389</v>
+        <v>39.95076</v>
       </c>
       <c r="B21">
-        <v>-71.716944</v>
+        <v>-84.99476</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>41.30417</v>
+        <v>39.38928</v>
       </c>
       <c r="B22">
-        <v>-72.92876</v>
+        <v>-74.54725999999999</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -717,10 +717,10 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>34.20873</v>
+        <v>35.08738</v>
       </c>
       <c r="B23">
-        <v>-118.4672</v>
+        <v>-106.5568</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -733,10 +733,10 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>41.47631</v>
+        <v>34.488866</v>
       </c>
       <c r="B24">
-        <v>-72.80577</v>
+        <v>-88.207067</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>37.90481</v>
+        <v>32.62801</v>
       </c>
       <c r="B25">
-        <v>-121.27304</v>
+        <v>-96.90831</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>35.82812</v>
+        <v>41.67021</v>
       </c>
       <c r="B26">
-        <v>-83.968031</v>
+        <v>-97.04919</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -781,10 +781,10 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>40.02536</v>
+        <v>36.91443</v>
       </c>
       <c r="B27">
-        <v>-74.08999</v>
+        <v>-98.9902</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>37.837133</v>
+        <v>42.87932</v>
       </c>
       <c r="B28">
-        <v>-122.262422</v>
+        <v>-71.57973</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -813,10 +813,10 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>38.907709</v>
+        <v>43.05528</v>
       </c>
       <c r="B29">
-        <v>-77.055278</v>
+        <v>-96.28747</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>40.397643</v>
+        <v>39.31225</v>
       </c>
       <c r="B30">
-        <v>-93.588503</v>
+        <v>-74.59278</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>25.87879</v>
+        <v>38.0854</v>
       </c>
       <c r="B31">
-        <v>-80.1678</v>
+        <v>-122.2573</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -861,10 +861,10 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>34.16538</v>
+        <v>39.95654</v>
       </c>
       <c r="B32">
-        <v>-118.29051</v>
+        <v>-75.25861999999999</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>33.630064</v>
+        <v>40.5612</v>
       </c>
       <c r="B33">
-        <v>-117.695749</v>
+        <v>-75.5235</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -893,10 +893,10 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>40.044444</v>
+        <v>42.00607</v>
       </c>
       <c r="B34">
-        <v>-104.822222</v>
+        <v>-76.55620999999999</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>37.96838</v>
+        <v>38.573208</v>
       </c>
       <c r="B35">
-        <v>-88.323826</v>
+        <v>-121.257761</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>37.0959</v>
+        <v>39.326667</v>
       </c>
       <c r="B36">
-        <v>-113.5224</v>
+        <v>-120.182222</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -941,10 +941,10 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>31.87078</v>
+        <v>40.820307</v>
       </c>
       <c r="B37">
-        <v>-102.43743</v>
+        <v>-73.899063</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>39.682581</v>
+        <v>45.01415</v>
       </c>
       <c r="B38">
-        <v>-91.36926099999999</v>
+        <v>-93.17711</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>40.103892</v>
+        <v>33.693743</v>
       </c>
       <c r="B39">
-        <v>-104.572678</v>
+        <v>-117.954269</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>33.51385</v>
+        <v>38.64312</v>
       </c>
       <c r="B40">
-        <v>-84.12609999999999</v>
+        <v>-90.31562</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1005,10 +1005,10 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>47.48776</v>
+        <v>38.258</v>
       </c>
       <c r="B41">
-        <v>-121.77167</v>
+        <v>-77.1447</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>47.318996</v>
+        <v>41.23908</v>
       </c>
       <c r="B42">
-        <v>-119.549012</v>
+        <v>-85.85663</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>41.67361</v>
+        <v>29.563333</v>
       </c>
       <c r="B43">
-        <v>-83.7454</v>
+        <v>-104.33944</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>42.92816</v>
+        <v>37.30398</v>
       </c>
       <c r="B44">
-        <v>-90.621196</v>
+        <v>-120.47281</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>41.423291</v>
+        <v>38.88487</v>
       </c>
       <c r="B45">
-        <v>-73.08814700000001</v>
+        <v>-77.90571</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>40.8596</v>
+        <v>47.7512</v>
       </c>
       <c r="B46">
-        <v>-73.63444</v>
+        <v>-121.465</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>39.62238</v>
+        <v>40.725253</v>
       </c>
       <c r="B47">
-        <v>-77.72009</v>
+        <v>-74.18385600000001</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>38.742665</v>
+        <v>39.79439</v>
       </c>
       <c r="B48">
-        <v>-90.81661800000001</v>
+        <v>-121.8975</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>41.88063</v>
+        <v>27.483056</v>
       </c>
       <c r="B49">
-        <v>-74.80911</v>
+        <v>-81.920556</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>30.29172</v>
+        <v>41.869435</v>
       </c>
       <c r="B50">
-        <v>-81.78136000000001</v>
+        <v>-94.67733200000001</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>45.67874</v>
+        <v>40.904486</v>
       </c>
       <c r="B51">
-        <v>-122.61959</v>
+        <v>-74.101294</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>40.33448</v>
+        <v>45.75538</v>
       </c>
       <c r="B52">
-        <v>-73.99303</v>
+        <v>-108.531811</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1197,10 +1197,10 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>41.77333</v>
+        <v>42.5425</v>
       </c>
       <c r="B53">
-        <v>-87.58620000000001</v>
+        <v>-88.1704</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>37.759926</v>
+        <v>37.32281</v>
       </c>
       <c r="B54">
-        <v>-122.42409</v>
+        <v>-121.98077</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>44.93403</v>
+        <v>42.91601</v>
       </c>
       <c r="B55">
-        <v>-92.33417</v>
+        <v>-76.79192</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>37.965621</v>
+        <v>45.8901</v>
       </c>
       <c r="B56">
-        <v>-87.60729600000001</v>
+        <v>-88.2796</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>40.545528</v>
+        <v>37.35178</v>
       </c>
       <c r="B57">
-        <v>-75.97966700000001</v>
+        <v>-122.0545</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>40.88804</v>
+        <v>44.617384</v>
       </c>
       <c r="B58">
-        <v>-75.31301999999999</v>
+        <v>-123.103934</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>45.372582</v>
+        <v>38.59559</v>
       </c>
       <c r="B59">
-        <v>-111.730712</v>
+        <v>-75.17868</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1309,10 +1309,10 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>41.423309</v>
+        <v>34.02587</v>
       </c>
       <c r="B60">
-        <v>-99.12549799999999</v>
+        <v>-118.39185</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>38.856438</v>
+        <v>45.95746</v>
       </c>
       <c r="B61">
-        <v>-120.022819</v>
+        <v>-94.66886</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>32.25106</v>
+        <v>40.66797</v>
       </c>
       <c r="B62">
-        <v>-106.69282</v>
+        <v>-92.25228</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>46.74382</v>
+        <v>38.58054</v>
       </c>
       <c r="B63">
-        <v>-107.82095</v>
+        <v>-121.52866</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1373,10 +1373,10 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>39.55413</v>
+        <v>38.20591</v>
       </c>
       <c r="B64">
-        <v>-89.27897</v>
+        <v>-85.66679000000001</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>47.183009</v>
+        <v>31.713456</v>
       </c>
       <c r="B65">
-        <v>-98.078452</v>
+        <v>-82.390362</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>40.804178</v>
+        <v>32.32822</v>
       </c>
       <c r="B66">
-        <v>-124.119605</v>
+        <v>-110.98418</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1421,10 +1421,10 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>40.3378</v>
+        <v>37.132856</v>
       </c>
       <c r="B67">
-        <v>-74.79604999999999</v>
+        <v>-75.966858</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1437,10 +1437,10 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>33.927719</v>
+        <v>41.02704</v>
       </c>
       <c r="B68">
-        <v>-84.25408400000001</v>
+        <v>-73.62445</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>38.964363</v>
+        <v>44.196057</v>
       </c>
       <c r="B69">
-        <v>-84.390737</v>
+        <v>-120.817688</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>47.2553</v>
+        <v>40.42475</v>
       </c>
       <c r="B70">
-        <v>-121.202</v>
+        <v>-86.88245000000001</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>41.002532</v>
+        <v>34.97721</v>
       </c>
       <c r="B71">
-        <v>-96.162071</v>
+        <v>-109.823346</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>40.39</v>
+        <v>30.09444</v>
       </c>
       <c r="B72">
-        <v>-74.45</v>
+        <v>-98.04929</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>40.89843</v>
+        <v>45.6079</v>
       </c>
       <c r="B73">
-        <v>-72.313288</v>
+        <v>-87.94889999999999</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>38.189837</v>
+        <v>46.349523</v>
       </c>
       <c r="B74">
-        <v>-92.64702800000001</v>
+        <v>-85.52015400000001</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>41.94902</v>
+        <v>33.59984</v>
       </c>
       <c r="B75">
-        <v>-87.86867599999999</v>
+        <v>-111.98398</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -1565,10 +1565,10 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>42.97697</v>
+        <v>47.50617</v>
       </c>
       <c r="B76">
-        <v>-71.46306</v>
+        <v>-111.25288</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -1581,10 +1581,10 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>43.119927</v>
+        <v>40.68711</v>
       </c>
       <c r="B77">
-        <v>-75.293373</v>
+        <v>-73.852755</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>47.56729</v>
+        <v>36.788374</v>
       </c>
       <c r="B78">
-        <v>-122.33394</v>
+        <v>-83.69761</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>40.111532</v>
+        <v>40.94577</v>
       </c>
       <c r="B79">
-        <v>-88.04284699999999</v>
+        <v>-74.28653</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>44.32828</v>
+        <v>39.67377</v>
       </c>
       <c r="B80">
-        <v>-93.8792</v>
+        <v>-74.22311000000001</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -1645,10 +1645,10 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>39.492218</v>
+        <v>40.85458</v>
       </c>
       <c r="B81">
-        <v>-108.091011</v>
+        <v>-74.74531</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>41.07952</v>
+        <v>40.91078</v>
       </c>
       <c r="B82">
-        <v>-86.60348</v>
+        <v>-74.40692</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>36.85544</v>
+        <v>39.62284</v>
       </c>
       <c r="B83">
-        <v>-76.28285</v>
+        <v>-74.64192</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>41.21422</v>
+        <v>42.26209</v>
       </c>
       <c r="B84">
-        <v>-96.07375999999999</v>
+        <v>-71.10914</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -1709,10 +1709,10 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>33.452022</v>
+        <v>43.182449</v>
       </c>
       <c r="B85">
-        <v>-83.213765</v>
+        <v>-95.856677</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -1725,10 +1725,10 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>37.851193</v>
+        <v>45.726157</v>
       </c>
       <c r="B86">
-        <v>-122.248406</v>
+        <v>-108.648217</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>35.14925</v>
+        <v>44.1533</v>
       </c>
       <c r="B87">
-        <v>-106.62411</v>
+        <v>-94.03767999999999</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>32.344975</v>
+        <v>35.1754</v>
       </c>
       <c r="B88">
-        <v>-93.61304199999999</v>
+        <v>-90.0445</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>37.194376</v>
+        <v>34.75434</v>
       </c>
       <c r="B89">
-        <v>-113.61702</v>
+        <v>-84.94982</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -1789,10 +1789,10 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>44.22666</v>
+        <v>38.496137</v>
       </c>
       <c r="B90">
-        <v>-91.82977</v>
+        <v>-121.658605</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>40.629886</v>
+        <v>32.56683</v>
       </c>
       <c r="B91">
-        <v>-74.309023</v>
+        <v>-97.42749000000001</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -1821,10 +1821,10 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>44.62645</v>
+        <v>40.535707</v>
       </c>
       <c r="B92">
-        <v>-91.96944999999999</v>
+        <v>-74.40082200000001</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -1837,10 +1837,10 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>35.228945</v>
+        <v>41.55596</v>
       </c>
       <c r="B93">
-        <v>-114.222856</v>
+        <v>-112.12444</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>34.74096</v>
+        <v>30.3294</v>
       </c>
       <c r="B94">
-        <v>-81.16623</v>
+        <v>-95.46576</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>36.67467</v>
+        <v>42.124193</v>
       </c>
       <c r="B95">
-        <v>-93.36641899999999</v>
+        <v>-72.567819</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>42.986</v>
+        <v>41.94011</v>
       </c>
       <c r="B96">
-        <v>-76.148082</v>
+        <v>-87.68792000000001</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -1901,10 +1901,10 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>32.4628</v>
+        <v>38.86383</v>
       </c>
       <c r="B97">
-        <v>-96.9663</v>
+        <v>-104.81004</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>33.95</v>
+        <v>40.89795</v>
       </c>
       <c r="B98">
-        <v>-87.095</v>
+        <v>-72.31458000000001</v>
       </c>
       <c r="C98">
         <v>97</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>40.20932</v>
+        <v>18.440917</v>
       </c>
       <c r="B99">
-        <v>-74.37976999999999</v>
+        <v>-67.129047</v>
       </c>
       <c r="C99">
         <v>98</v>
@@ -1949,10 +1949,10 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>42.42034</v>
+        <v>39.84214</v>
       </c>
       <c r="B100">
-        <v>-93.67964000000001</v>
+        <v>-96.64026</v>
       </c>
       <c r="C100">
         <v>99</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>39.348</v>
+        <v>41.904339</v>
       </c>
       <c r="B101">
-        <v>-84.8536</v>
+        <v>-88.339822</v>
       </c>
       <c r="C101">
         <v>100</v>

--- a/inst/testdata/latlon/testpoints_100.xlsx
+++ b/inst/testdata/latlon/testpoints_100.xlsx
@@ -381,10 +381,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>36.015714</v>
+        <v>40.66478</v>
       </c>
       <c r="B2">
-        <v>-90.799477</v>
+        <v>-74.89136999999999</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -397,10 +397,10 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>40.704774</v>
+        <v>38.39657</v>
       </c>
       <c r="B3">
-        <v>-73.94186000000001</v>
+        <v>-98.70086000000001</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -413,10 +413,10 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>41.505144</v>
+        <v>40.34971</v>
       </c>
       <c r="B4">
-        <v>-94.518159</v>
+        <v>-79.84963999999999</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -429,10 +429,10 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>46.916976</v>
+        <v>34.238356</v>
       </c>
       <c r="B5">
-        <v>-97.996522</v>
+        <v>-118.253428</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -445,10 +445,10 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>38.41666</v>
+        <v>41.351626</v>
       </c>
       <c r="B6">
-        <v>-122.8662</v>
+        <v>-85.13566</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -461,10 +461,10 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>31.127656</v>
+        <v>42.210608</v>
       </c>
       <c r="B7">
-        <v>-97.86003599999999</v>
+        <v>-93.215351</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -477,10 +477,10 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>33.722</v>
+        <v>33.83575</v>
       </c>
       <c r="B8">
-        <v>-117.91413</v>
+        <v>-118.11689</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -493,10 +493,10 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>34.04695</v>
+        <v>43.06623</v>
       </c>
       <c r="B9">
-        <v>-118.03132</v>
+        <v>-92.68472</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -509,10 +509,10 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>29.904808</v>
+        <v>44.33037</v>
       </c>
       <c r="B10">
-        <v>-90.136928</v>
+        <v>-75.90884</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>40.10397</v>
+        <v>44.607389</v>
       </c>
       <c r="B11">
-        <v>-83.77349</v>
+        <v>-93.78310500000001</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -541,10 +541,10 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>32.9296</v>
+        <v>44.5622</v>
       </c>
       <c r="B12">
-        <v>-96.323607</v>
+        <v>-74.905897</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>40.28939</v>
+        <v>34.00255</v>
       </c>
       <c r="B13">
-        <v>-73.98488999999999</v>
+        <v>-118.1327</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>39.08575</v>
+        <v>42.84871</v>
       </c>
       <c r="B14">
-        <v>-89.39008</v>
+        <v>-106.3146</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -589,10 +589,10 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>30.314791</v>
+        <v>39.281609</v>
       </c>
       <c r="B15">
-        <v>-95.38846700000001</v>
+        <v>-121.858902</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>35.101556</v>
+        <v>39.1072</v>
       </c>
       <c r="B16">
-        <v>-117.991517</v>
+        <v>-84.61387999999999</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -621,10 +621,10 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>42.18712</v>
+        <v>40.44519</v>
       </c>
       <c r="B17">
-        <v>-83.76461999999999</v>
+        <v>-74.93169</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -637,10 +637,10 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>40.767653</v>
+        <v>41.55228</v>
       </c>
       <c r="B18">
-        <v>-99.702</v>
+        <v>-73.07089000000001</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>30.680797</v>
+        <v>32.65896</v>
       </c>
       <c r="B19">
-        <v>-96.318895</v>
+        <v>-117.10381</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -669,10 +669,10 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>41.71859</v>
+        <v>41.18806</v>
       </c>
       <c r="B20">
-        <v>-87.81511999999999</v>
+        <v>-103.67739</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>39.95076</v>
+        <v>36.3733</v>
       </c>
       <c r="B21">
-        <v>-84.99476</v>
+        <v>-84.23925</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>39.38928</v>
+        <v>41.765963</v>
       </c>
       <c r="B22">
-        <v>-74.54725999999999</v>
+        <v>-87.663831</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -717,10 +717,10 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>35.08738</v>
+        <v>38.737189</v>
       </c>
       <c r="B23">
-        <v>-106.5568</v>
+        <v>-122.145336</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -733,10 +733,10 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>34.488866</v>
+        <v>34.320805</v>
       </c>
       <c r="B24">
-        <v>-88.207067</v>
+        <v>-111.00948</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>32.62801</v>
+        <v>41.028894</v>
       </c>
       <c r="B25">
-        <v>-96.90831</v>
+        <v>-76.466869</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>41.67021</v>
+        <v>40.55129</v>
       </c>
       <c r="B26">
-        <v>-97.04919</v>
+        <v>-89.25015</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -781,10 +781,10 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>36.91443</v>
+        <v>45.56802</v>
       </c>
       <c r="B27">
-        <v>-98.9902</v>
+        <v>-94.5924</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>42.87932</v>
+        <v>45.54008</v>
       </c>
       <c r="B28">
-        <v>-71.57973</v>
+        <v>-122.64731</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -813,10 +813,10 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>43.05528</v>
+        <v>34.224205</v>
       </c>
       <c r="B29">
-        <v>-96.28747</v>
+        <v>-118.607902</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>39.31225</v>
+        <v>44.54588</v>
       </c>
       <c r="B30">
-        <v>-74.59278</v>
+        <v>-70.55643000000001</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>38.0854</v>
+        <v>42.72435</v>
       </c>
       <c r="B31">
-        <v>-122.2573</v>
+        <v>-92.19929</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -861,10 +861,10 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>39.95654</v>
+        <v>34.105383</v>
       </c>
       <c r="B32">
-        <v>-75.25861999999999</v>
+        <v>-117.950665</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>40.5612</v>
+        <v>40.23321</v>
       </c>
       <c r="B33">
-        <v>-75.5235</v>
+        <v>-74.70677000000001</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -893,10 +893,10 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>42.00607</v>
+        <v>46.90732</v>
       </c>
       <c r="B34">
-        <v>-76.55620999999999</v>
+        <v>-95.06321</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>38.573208</v>
+        <v>40.74836</v>
       </c>
       <c r="B35">
-        <v>-121.257761</v>
+        <v>-74.24467</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>39.326667</v>
+        <v>38.39053</v>
       </c>
       <c r="B36">
-        <v>-120.182222</v>
+        <v>-90.58468000000001</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -941,10 +941,10 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>40.820307</v>
+        <v>30.07394</v>
       </c>
       <c r="B37">
-        <v>-73.899063</v>
+        <v>-92.68047</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>45.01415</v>
+        <v>33.40379</v>
       </c>
       <c r="B38">
-        <v>-93.17711</v>
+        <v>-82.10532000000001</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>33.693743</v>
+        <v>39.56686</v>
       </c>
       <c r="B39">
-        <v>-117.954269</v>
+        <v>-75.0137</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>38.64312</v>
+        <v>33.228333</v>
       </c>
       <c r="B40">
-        <v>-90.31562</v>
+        <v>-97.303611</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1005,10 +1005,10 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>38.258</v>
+        <v>40.635226</v>
       </c>
       <c r="B41">
-        <v>-77.1447</v>
+        <v>-73.967628</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41.23908</v>
+        <v>42.676621</v>
       </c>
       <c r="B42">
-        <v>-85.85663</v>
+        <v>-83.239902</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>29.563333</v>
+        <v>41.88805</v>
       </c>
       <c r="B43">
-        <v>-104.33944</v>
+        <v>-87.848208</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>37.30398</v>
+        <v>25.91851</v>
       </c>
       <c r="B44">
-        <v>-120.47281</v>
+        <v>-97.44678999999999</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>38.88487</v>
+        <v>43.669225</v>
       </c>
       <c r="B45">
-        <v>-77.90571</v>
+        <v>-92.972261</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>47.7512</v>
+        <v>37.8088</v>
       </c>
       <c r="B46">
-        <v>-121.465</v>
+        <v>-101.58307</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>40.725253</v>
+        <v>34.94638</v>
       </c>
       <c r="B47">
-        <v>-74.18385600000001</v>
+        <v>-81.03807</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>39.79439</v>
+        <v>34.065556</v>
       </c>
       <c r="B48">
-        <v>-121.8975</v>
+        <v>-117.047222</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>27.483056</v>
+        <v>41.750688</v>
       </c>
       <c r="B49">
-        <v>-81.920556</v>
+        <v>-87.68286500000001</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>41.869435</v>
+        <v>36.61676</v>
       </c>
       <c r="B50">
-        <v>-94.67733200000001</v>
+        <v>-88.32096</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>40.904486</v>
+        <v>40.17353</v>
       </c>
       <c r="B51">
-        <v>-74.101294</v>
+        <v>-74.02208</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>45.75538</v>
+        <v>38.54863</v>
       </c>
       <c r="B52">
-        <v>-108.531811</v>
+        <v>-90.37566</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1197,10 +1197,10 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>42.5425</v>
+        <v>41.059085</v>
       </c>
       <c r="B53">
-        <v>-88.1704</v>
+        <v>-73.765974</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>37.32281</v>
+        <v>44.8898</v>
       </c>
       <c r="B54">
-        <v>-121.98077</v>
+        <v>-89.51094000000001</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>42.91601</v>
+        <v>43.3463</v>
       </c>
       <c r="B55">
-        <v>-76.79192</v>
+        <v>-83.384</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>45.8901</v>
+        <v>30.182358</v>
       </c>
       <c r="B56">
-        <v>-88.2796</v>
+        <v>-85.72841699999999</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>37.35178</v>
+        <v>37.506654</v>
       </c>
       <c r="B57">
-        <v>-122.0545</v>
+        <v>-122.252962</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>44.617384</v>
+        <v>45.51544</v>
       </c>
       <c r="B58">
-        <v>-123.103934</v>
+        <v>-122.65868</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>38.59559</v>
+        <v>29.467922</v>
       </c>
       <c r="B59">
-        <v>-75.17868</v>
+        <v>-95.11463000000001</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1309,10 +1309,10 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>34.02587</v>
+        <v>36.911944</v>
       </c>
       <c r="B60">
-        <v>-118.39185</v>
+        <v>-83.919444</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>45.95746</v>
+        <v>41.16786</v>
       </c>
       <c r="B61">
-        <v>-94.66886</v>
+        <v>-111.96861</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>40.66797</v>
+        <v>41.56639</v>
       </c>
       <c r="B62">
-        <v>-92.25228</v>
+        <v>-73.918181</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>38.58054</v>
+        <v>38.57299</v>
       </c>
       <c r="B63">
-        <v>-121.52866</v>
+        <v>-121.49938</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1373,10 +1373,10 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>38.20591</v>
+        <v>39.188043</v>
       </c>
       <c r="B64">
-        <v>-85.66679000000001</v>
+        <v>-120.834568</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>31.713456</v>
+        <v>40.92497</v>
       </c>
       <c r="B65">
-        <v>-82.390362</v>
+        <v>-72.69535999999999</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>32.32822</v>
+        <v>33.368661</v>
       </c>
       <c r="B66">
-        <v>-110.98418</v>
+        <v>-87.01028700000001</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -1421,10 +1421,10 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>37.132856</v>
+        <v>40.88991</v>
       </c>
       <c r="B67">
-        <v>-75.966858</v>
+        <v>-124.08757</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -1437,10 +1437,10 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>41.02704</v>
+        <v>46.666278</v>
       </c>
       <c r="B68">
-        <v>-73.62445</v>
+        <v>-112.514167</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>44.196057</v>
+        <v>39.478111</v>
       </c>
       <c r="B69">
-        <v>-120.817688</v>
+        <v>-96.07643899999999</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>40.42475</v>
+        <v>33.699624</v>
       </c>
       <c r="B70">
-        <v>-86.88245000000001</v>
+        <v>-78.910265</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>34.97721</v>
+        <v>42.43759</v>
       </c>
       <c r="B71">
-        <v>-109.823346</v>
+        <v>-77.096585</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>30.09444</v>
+        <v>33.75575</v>
       </c>
       <c r="B72">
-        <v>-98.04929</v>
+        <v>-117.87106</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>45.6079</v>
+        <v>40.647771</v>
       </c>
       <c r="B73">
-        <v>-87.94889999999999</v>
+        <v>-79.107394</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>46.349523</v>
+        <v>44.865604</v>
       </c>
       <c r="B74">
-        <v>-85.52015400000001</v>
+        <v>-93.39997</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>33.59984</v>
+        <v>41.04158</v>
       </c>
       <c r="B75">
-        <v>-111.98398</v>
+        <v>-96.10195</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -1565,10 +1565,10 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>47.50617</v>
+        <v>40.7899</v>
       </c>
       <c r="B76">
-        <v>-111.25288</v>
+        <v>-74.02005</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -1581,10 +1581,10 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>40.68711</v>
+        <v>40.73868</v>
       </c>
       <c r="B77">
-        <v>-73.852755</v>
+        <v>-73.98324</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>36.788374</v>
+        <v>47.70375</v>
       </c>
       <c r="B78">
-        <v>-83.69761</v>
+        <v>-116.785747</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>40.94577</v>
+        <v>39.06548</v>
       </c>
       <c r="B79">
-        <v>-74.28653</v>
+        <v>-84.11596</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>39.67377</v>
+        <v>38.59822</v>
       </c>
       <c r="B80">
-        <v>-74.22311000000001</v>
+        <v>-90.16107</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -1645,10 +1645,10 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>40.85458</v>
+        <v>26.68223</v>
       </c>
       <c r="B81">
-        <v>-74.74531</v>
+        <v>-80.11203999999999</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>40.91078</v>
+        <v>38.19563</v>
       </c>
       <c r="B82">
-        <v>-74.40692</v>
+        <v>-86.97767</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>39.62284</v>
+        <v>37.35819</v>
       </c>
       <c r="B83">
-        <v>-74.64192</v>
+        <v>-120.74194</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>42.26209</v>
+        <v>33.5096</v>
       </c>
       <c r="B84">
-        <v>-71.10914</v>
+        <v>-112.1026</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -1709,10 +1709,10 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>43.182449</v>
+        <v>43.64384</v>
       </c>
       <c r="B85">
-        <v>-95.856677</v>
+        <v>-70.98053</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -1725,10 +1725,10 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>45.726157</v>
+        <v>42.45838</v>
       </c>
       <c r="B86">
-        <v>-108.648217</v>
+        <v>-93.80831000000001</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>44.1533</v>
+        <v>30.362953</v>
       </c>
       <c r="B87">
-        <v>-94.03767999999999</v>
+        <v>-87.13959199999999</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>35.1754</v>
+        <v>39.62418</v>
       </c>
       <c r="B88">
-        <v>-90.0445</v>
+        <v>-86.47978999999999</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>34.75434</v>
+        <v>41.85287</v>
       </c>
       <c r="B89">
-        <v>-84.94982</v>
+        <v>-71.39655</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -1789,10 +1789,10 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>38.496137</v>
+        <v>33.727633</v>
       </c>
       <c r="B90">
-        <v>-121.658605</v>
+        <v>-118.066351</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>32.56683</v>
+        <v>40.1942</v>
       </c>
       <c r="B91">
-        <v>-97.42749000000001</v>
+        <v>-80.3128</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -1821,10 +1821,10 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>40.535707</v>
+        <v>33.18422</v>
       </c>
       <c r="B92">
-        <v>-74.40082200000001</v>
+        <v>-117.29259</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -1837,10 +1837,10 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>41.55596</v>
+        <v>40.583031</v>
       </c>
       <c r="B93">
-        <v>-112.12444</v>
+        <v>-79.76570700000001</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>30.3294</v>
+        <v>45.56393</v>
       </c>
       <c r="B94">
-        <v>-95.46576</v>
+        <v>-94.94584999999999</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>42.124193</v>
+        <v>33.72709</v>
       </c>
       <c r="B95">
-        <v>-72.567819</v>
+        <v>-116.39837</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>41.94011</v>
+        <v>42.727046</v>
       </c>
       <c r="B96">
-        <v>-87.68792000000001</v>
+        <v>-84.555521</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -1901,10 +1901,10 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>38.86383</v>
+        <v>39.95224</v>
       </c>
       <c r="B97">
-        <v>-104.81004</v>
+        <v>-74.985556</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>40.89795</v>
+        <v>37.52802</v>
       </c>
       <c r="B98">
-        <v>-72.31458000000001</v>
+        <v>-122.02633</v>
       </c>
       <c r="C98">
         <v>97</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>18.440917</v>
+        <v>40.33382</v>
       </c>
       <c r="B99">
-        <v>-67.129047</v>
+        <v>-74.04594</v>
       </c>
       <c r="C99">
         <v>98</v>
@@ -1949,10 +1949,10 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>39.84214</v>
+        <v>36.8879</v>
       </c>
       <c r="B100">
-        <v>-96.64026</v>
+        <v>-111.44425</v>
       </c>
       <c r="C100">
         <v>99</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>41.904339</v>
+        <v>41.82161</v>
       </c>
       <c r="B101">
-        <v>-88.339822</v>
+        <v>-71.35842</v>
       </c>
       <c r="C101">
         <v>100</v>
